--- a/data/diary_ratings.xlsx
+++ b/data/diary_ratings.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45812.87028486227</v>
+        <v>45812.87028486111</v>
       </c>
     </row>
     <row r="3">
@@ -496,6 +496,40 @@
       </c>
       <c r="E3" s="2" t="n">
         <v>45812.77293420139</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45813.59373834491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45813.59432758189</v>
       </c>
     </row>
   </sheetData>

--- a/data/diary_ratings.xlsx
+++ b/data/diary_ratings.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45813.59373834491</v>
+        <v>45813.55360568287</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,203 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45813.55519140046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45813.55956953704</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45813.56395763889</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45813.56610200232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45813.92347214121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45813.92460251157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45813.92599123843</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45813.59432758189</v>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45813.93581390046</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45813.93816232639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45813.93827703704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45813.94121559028</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45813.94303032567</v>
       </c>
     </row>
   </sheetData>
